--- a/StructureDefinition-ischemic-stroke-etiology-ext.xlsx
+++ b/StructureDefinition-ischemic-stroke-etiology-ext.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://testSK.org/StructureDefinition/ischemic-stroke-etiology-ext</t>
+    <t>http://tecnomod-um.org/StructureDefinition/ischemic-stroke-etiology-ext</t>
   </si>
   <si>
     <t>Version</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>UMU (http://testSK.org/umu)</t>
+    <t>UMU (http://tecnomod-um.org)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -344,7 +344,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://testSK.org/ValueSet/stroke-etiology-vs</t>
+    <t>http://tecnomod-um.org/ValueSet/stroke-etiology-vs</t>
   </si>
   <si>
     <t xml:space="preserve">ext-1
@@ -703,7 +703,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="36.05078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="41.99609375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
